--- a/Team-Data/2007-08/4-2-2007-08.xlsx
+++ b/Team-Data/2007-08/4-2-2007-08.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,37 +733,37 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E2" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F2" t="n">
         <v>40</v>
       </c>
       <c r="G2" t="n">
-        <v>0.467</v>
+        <v>0.459</v>
       </c>
       <c r="H2" t="n">
-        <v>48.5</v>
+        <v>48.4</v>
       </c>
       <c r="I2" t="n">
-        <v>36.1</v>
+        <v>36</v>
       </c>
       <c r="J2" t="n">
-        <v>79.8</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="K2" t="n">
-        <v>0.453</v>
+        <v>0.452</v>
       </c>
       <c r="L2" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="M2" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="N2" t="n">
-        <v>0.359</v>
+        <v>0.354</v>
       </c>
       <c r="O2" t="n">
         <v>21.1</v>
@@ -705,19 +772,19 @@
         <v>27.3</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.775</v>
+        <v>0.774</v>
       </c>
       <c r="R2" t="n">
         <v>12.3</v>
       </c>
       <c r="S2" t="n">
-        <v>30</v>
+        <v>29.9</v>
       </c>
       <c r="T2" t="n">
-        <v>42.3</v>
+        <v>42.2</v>
       </c>
       <c r="U2" t="n">
-        <v>22</v>
+        <v>21.8</v>
       </c>
       <c r="V2" t="n">
         <v>15</v>
@@ -732,19 +799,19 @@
         <v>5.2</v>
       </c>
       <c r="Z2" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="AA2" t="n">
         <v>21.9</v>
       </c>
       <c r="AB2" t="n">
-        <v>98</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="AC2" t="n">
-        <v>-1.5</v>
+        <v>-1.6</v>
       </c>
       <c r="AD2" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AE2" t="n">
         <v>18</v>
@@ -756,13 +823,13 @@
         <v>18</v>
       </c>
       <c r="AH2" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AI2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AJ2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AK2" t="n">
         <v>16</v>
@@ -774,10 +841,10 @@
         <v>28</v>
       </c>
       <c r="AN2" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AO2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AP2" t="n">
         <v>7</v>
@@ -795,16 +862,16 @@
         <v>11</v>
       </c>
       <c r="AU2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AV2" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AW2" t="n">
         <v>14</v>
       </c>
       <c r="AX2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AY2" t="n">
         <v>24</v>
@@ -813,10 +880,10 @@
         <v>12</v>
       </c>
       <c r="BA2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BB2" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BC2" t="n">
         <v>18</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>4-2-2007-08</t>
+          <t>2008-04-02</t>
         </is>
       </c>
     </row>
@@ -848,16 +915,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E3" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F3" t="n">
         <v>15</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8</v>
+        <v>0.797</v>
       </c>
       <c r="H3" t="n">
         <v>48.1</v>
@@ -875,13 +942,13 @@
         <v>7.2</v>
       </c>
       <c r="M3" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="N3" t="n">
-        <v>0.377</v>
+        <v>0.379</v>
       </c>
       <c r="O3" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="P3" t="n">
         <v>26.6</v>
@@ -893,16 +960,16 @@
         <v>10</v>
       </c>
       <c r="S3" t="n">
-        <v>31.7</v>
+        <v>31.6</v>
       </c>
       <c r="T3" t="n">
-        <v>41.7</v>
+        <v>41.6</v>
       </c>
       <c r="U3" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="V3" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="W3" t="n">
         <v>8.5</v>
@@ -920,13 +987,13 @@
         <v>22.3</v>
       </c>
       <c r="AB3" t="n">
-        <v>100.5</v>
+        <v>100.6</v>
       </c>
       <c r="AC3" t="n">
-        <v>10.5</v>
+        <v>10.4</v>
       </c>
       <c r="AD3" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AE3" t="n">
         <v>1</v>
@@ -938,7 +1005,7 @@
         <v>1</v>
       </c>
       <c r="AH3" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AI3" t="n">
         <v>19</v>
@@ -956,10 +1023,10 @@
         <v>13</v>
       </c>
       <c r="AN3" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AO3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AP3" t="n">
         <v>9</v>
@@ -989,7 +1056,7 @@
         <v>18</v>
       </c>
       <c r="AY3" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AZ3" t="n">
         <v>25</v>
@@ -998,7 +1065,7 @@
         <v>8</v>
       </c>
       <c r="BB3" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BC3" t="n">
         <v>1</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>4-2-2007-08</t>
+          <t>2008-04-02</t>
         </is>
       </c>
     </row>
@@ -1030,28 +1097,28 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E4" t="n">
         <v>28</v>
       </c>
       <c r="F4" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G4" t="n">
-        <v>0.373</v>
+        <v>0.378</v>
       </c>
       <c r="H4" t="n">
         <v>48.5</v>
       </c>
       <c r="I4" t="n">
-        <v>35.8</v>
+        <v>35.7</v>
       </c>
       <c r="J4" t="n">
         <v>79.8</v>
       </c>
       <c r="K4" t="n">
-        <v>0.449</v>
+        <v>0.447</v>
       </c>
       <c r="L4" t="n">
         <v>6.5</v>
@@ -1063,10 +1130,10 @@
         <v>0.366</v>
       </c>
       <c r="O4" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="P4" t="n">
-        <v>25.6</v>
+        <v>25.5</v>
       </c>
       <c r="Q4" t="n">
         <v>0.71</v>
@@ -1102,13 +1169,13 @@
         <v>21</v>
       </c>
       <c r="AB4" t="n">
-        <v>96.2</v>
+        <v>96</v>
       </c>
       <c r="AC4" t="n">
         <v>-4.6</v>
       </c>
       <c r="AD4" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AE4" t="n">
         <v>23</v>
@@ -1123,13 +1190,13 @@
         <v>4</v>
       </c>
       <c r="AI4" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AJ4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AK4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AL4" t="n">
         <v>16</v>
@@ -1144,7 +1211,7 @@
         <v>20</v>
       </c>
       <c r="AP4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AQ4" t="n">
         <v>29</v>
@@ -1159,7 +1226,7 @@
         <v>26</v>
       </c>
       <c r="AU4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AV4" t="n">
         <v>20</v>
@@ -1174,13 +1241,13 @@
         <v>30</v>
       </c>
       <c r="AZ4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BA4" t="n">
         <v>17</v>
       </c>
       <c r="BB4" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BC4" t="n">
         <v>22</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>4-2-2007-08</t>
+          <t>2008-04-02</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1357,7 @@
         <v>-2.9</v>
       </c>
       <c r="AD5" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="AE5" t="n">
         <v>22</v>
@@ -1302,7 +1369,7 @@
         <v>22</v>
       </c>
       <c r="AH5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI5" t="n">
         <v>21</v>
@@ -1317,13 +1384,13 @@
         <v>22</v>
       </c>
       <c r="AM5" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AN5" t="n">
         <v>14</v>
       </c>
       <c r="AO5" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AP5" t="n">
         <v>16</v>
@@ -1341,13 +1408,13 @@
         <v>6</v>
       </c>
       <c r="AU5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AV5" t="n">
         <v>15</v>
       </c>
       <c r="AW5" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AX5" t="n">
         <v>7</v>
@@ -1359,7 +1426,7 @@
         <v>21</v>
       </c>
       <c r="BA5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BB5" t="n">
         <v>18</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>4-2-2007-08</t>
+          <t>2008-04-02</t>
         </is>
       </c>
     </row>
@@ -1394,61 +1461,61 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E6" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F6" t="n">
         <v>33</v>
       </c>
       <c r="G6" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.554</v>
       </c>
       <c r="H6" t="n">
         <v>48.5</v>
       </c>
       <c r="I6" t="n">
-        <v>36</v>
+        <v>35.9</v>
       </c>
       <c r="J6" t="n">
-        <v>81.8</v>
+        <v>81.7</v>
       </c>
       <c r="K6" t="n">
-        <v>0.441</v>
+        <v>0.439</v>
       </c>
       <c r="L6" t="n">
         <v>7</v>
       </c>
       <c r="M6" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="N6" t="n">
-        <v>0.361</v>
+        <v>0.362</v>
       </c>
       <c r="O6" t="n">
-        <v>17.9</v>
+        <v>17.8</v>
       </c>
       <c r="P6" t="n">
-        <v>24.9</v>
+        <v>24.7</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.72</v>
+        <v>0.721</v>
       </c>
       <c r="R6" t="n">
-        <v>13.2</v>
+        <v>13.1</v>
       </c>
       <c r="S6" t="n">
-        <v>31.2</v>
+        <v>31.3</v>
       </c>
       <c r="T6" t="n">
         <v>44.4</v>
       </c>
       <c r="U6" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="V6" t="n">
-        <v>14</v>
+        <v>14.1</v>
       </c>
       <c r="W6" t="n">
         <v>7.1</v>
@@ -1466,13 +1533,13 @@
         <v>20.1</v>
       </c>
       <c r="AB6" t="n">
-        <v>96.90000000000001</v>
+        <v>96.7</v>
       </c>
       <c r="AC6" t="n">
-        <v>-0.3</v>
+        <v>-0.4</v>
       </c>
       <c r="AD6" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AE6" t="n">
         <v>13</v>
@@ -1487,19 +1554,19 @@
         <v>4</v>
       </c>
       <c r="AI6" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AJ6" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AK6" t="n">
         <v>27</v>
       </c>
       <c r="AL6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AN6" t="n">
         <v>15</v>
@@ -1514,10 +1581,10 @@
         <v>28</v>
       </c>
       <c r="AR6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AS6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AT6" t="n">
         <v>2</v>
@@ -1535,7 +1602,7 @@
         <v>8</v>
       </c>
       <c r="AY6" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AZ6" t="n">
         <v>16</v>
@@ -1544,7 +1611,7 @@
         <v>24</v>
       </c>
       <c r="BB6" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="BC6" t="n">
         <v>15</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>4-2-2007-08</t>
+          <t>2008-04-02</t>
         </is>
       </c>
     </row>
@@ -1576,25 +1643,25 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E7" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F7" t="n">
         <v>28</v>
       </c>
       <c r="G7" t="n">
-        <v>0.627</v>
+        <v>0.622</v>
       </c>
       <c r="H7" t="n">
         <v>48.1</v>
       </c>
       <c r="I7" t="n">
-        <v>36.7</v>
+        <v>36.6</v>
       </c>
       <c r="J7" t="n">
-        <v>79.2</v>
+        <v>79</v>
       </c>
       <c r="K7" t="n">
         <v>0.464</v>
@@ -1609,25 +1676,25 @@
         <v>0.351</v>
       </c>
       <c r="O7" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="P7" t="n">
-        <v>25.6</v>
+        <v>25.7</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.8129999999999999</v>
+        <v>0.8120000000000001</v>
       </c>
       <c r="R7" t="n">
-        <v>10.8</v>
+        <v>10.7</v>
       </c>
       <c r="S7" t="n">
-        <v>32.4</v>
+        <v>32.3</v>
       </c>
       <c r="T7" t="n">
-        <v>43.2</v>
+        <v>43</v>
       </c>
       <c r="U7" t="n">
-        <v>20.9</v>
+        <v>20.7</v>
       </c>
       <c r="V7" t="n">
         <v>13.1</v>
@@ -1642,31 +1709,31 @@
         <v>4.3</v>
       </c>
       <c r="Z7" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="AA7" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="AB7" t="n">
-        <v>100.2</v>
+        <v>100</v>
       </c>
       <c r="AC7" t="n">
-        <v>4.6</v>
+        <v>4.3</v>
       </c>
       <c r="AD7" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AE7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AF7" t="n">
         <v>9</v>
       </c>
       <c r="AG7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AH7" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AI7" t="n">
         <v>17</v>
@@ -1684,16 +1751,16 @@
         <v>19</v>
       </c>
       <c r="AN7" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AO7" t="n">
         <v>7</v>
       </c>
       <c r="AP7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AQ7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AR7" t="n">
         <v>21</v>
@@ -1702,25 +1769,25 @@
         <v>6</v>
       </c>
       <c r="AT7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AU7" t="n">
         <v>21</v>
       </c>
       <c r="AV7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AW7" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AX7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AY7" t="n">
         <v>8</v>
       </c>
       <c r="AZ7" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BA7" t="n">
         <v>14</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>4-2-2007-08</t>
+          <t>2008-04-02</t>
         </is>
       </c>
     </row>
@@ -1836,10 +1903,10 @@
         <v>3.8</v>
       </c>
       <c r="AD8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF8" t="n">
         <v>11</v>
@@ -1848,25 +1915,25 @@
         <v>11</v>
       </c>
       <c r="AH8" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AI8" t="n">
         <v>4</v>
       </c>
       <c r="AJ8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AK8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AL8" t="n">
         <v>13</v>
       </c>
       <c r="AM8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AN8" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AO8" t="n">
         <v>1</v>
@@ -1899,7 +1966,7 @@
         <v>1</v>
       </c>
       <c r="AY8" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AZ8" t="n">
         <v>17</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>4-2-2007-08</t>
+          <t>2008-04-02</t>
         </is>
       </c>
     </row>
@@ -2018,7 +2085,7 @@
         <v>7.1</v>
       </c>
       <c r="AD9" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="AE9" t="n">
         <v>2</v>
@@ -2036,7 +2103,7 @@
         <v>18</v>
       </c>
       <c r="AJ9" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AK9" t="n">
         <v>13</v>
@@ -2045,10 +2112,10 @@
         <v>18</v>
       </c>
       <c r="AM9" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AN9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AO9" t="n">
         <v>18</v>
@@ -2057,7 +2124,7 @@
         <v>20</v>
       </c>
       <c r="AQ9" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AR9" t="n">
         <v>11</v>
@@ -2069,16 +2136,16 @@
         <v>23</v>
       </c>
       <c r="AU9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AV9" t="n">
         <v>1</v>
       </c>
       <c r="AW9" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AX9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY9" t="n">
         <v>3</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>4-2-2007-08</t>
+          <t>2008-04-02</t>
         </is>
       </c>
     </row>
@@ -2122,58 +2189,58 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E10" t="n">
         <v>45</v>
       </c>
       <c r="F10" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6</v>
+        <v>0.608</v>
       </c>
       <c r="H10" t="n">
         <v>48.3</v>
       </c>
       <c r="I10" t="n">
-        <v>41.2</v>
+        <v>41.3</v>
       </c>
       <c r="J10" t="n">
-        <v>89.7</v>
+        <v>89.8</v>
       </c>
       <c r="K10" t="n">
-        <v>0.459</v>
+        <v>0.46</v>
       </c>
       <c r="L10" t="n">
-        <v>9.300000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="M10" t="n">
-        <v>26.6</v>
+        <v>26.7</v>
       </c>
       <c r="N10" t="n">
-        <v>0.351</v>
+        <v>0.352</v>
       </c>
       <c r="O10" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="P10" t="n">
-        <v>25</v>
+        <v>25.1</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.753</v>
+        <v>0.752</v>
       </c>
       <c r="R10" t="n">
         <v>12.5</v>
       </c>
       <c r="S10" t="n">
-        <v>30.2</v>
+        <v>30.3</v>
       </c>
       <c r="T10" t="n">
-        <v>42.7</v>
+        <v>42.8</v>
       </c>
       <c r="U10" t="n">
-        <v>22.2</v>
+        <v>22.4</v>
       </c>
       <c r="V10" t="n">
         <v>13.1</v>
@@ -2188,25 +2255,25 @@
         <v>5.1</v>
       </c>
       <c r="Z10" t="n">
-        <v>22.9</v>
+        <v>23</v>
       </c>
       <c r="AA10" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="AB10" t="n">
-        <v>110.5</v>
+        <v>110.8</v>
       </c>
       <c r="AC10" t="n">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="AD10" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AE10" t="n">
         <v>12</v>
       </c>
       <c r="AF10" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG10" t="n">
         <v>12</v>
@@ -2230,10 +2297,10 @@
         <v>1</v>
       </c>
       <c r="AN10" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AO10" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AP10" t="n">
         <v>15</v>
@@ -2245,7 +2312,7 @@
         <v>5</v>
       </c>
       <c r="AS10" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AT10" t="n">
         <v>9</v>
@@ -2269,7 +2336,7 @@
         <v>27</v>
       </c>
       <c r="BA10" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BB10" t="n">
         <v>1</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>4-2-2007-08</t>
+          <t>2008-04-02</t>
         </is>
       </c>
     </row>
@@ -2382,10 +2449,10 @@
         <v>4.2</v>
       </c>
       <c r="AD11" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="AE11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AF11" t="n">
         <v>6</v>
@@ -2397,25 +2464,25 @@
         <v>24</v>
       </c>
       <c r="AI11" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AJ11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK11" t="n">
         <v>18</v>
       </c>
       <c r="AL11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM11" t="n">
         <v>7</v>
       </c>
       <c r="AN11" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AO11" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AP11" t="n">
         <v>26</v>
@@ -2424,10 +2491,10 @@
         <v>25</v>
       </c>
       <c r="AR11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AS11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AT11" t="n">
         <v>1</v>
@@ -2454,7 +2521,7 @@
         <v>26</v>
       </c>
       <c r="BB11" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BC11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>4-2-2007-08</t>
+          <t>2008-04-02</t>
         </is>
       </c>
     </row>
@@ -2486,67 +2553,67 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E12" t="n">
         <v>31</v>
       </c>
       <c r="F12" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G12" t="n">
-        <v>0.413</v>
+        <v>0.419</v>
       </c>
       <c r="H12" t="n">
         <v>48.2</v>
       </c>
       <c r="I12" t="n">
-        <v>37.8</v>
+        <v>37.9</v>
       </c>
       <c r="J12" t="n">
-        <v>85.5</v>
+        <v>85.59999999999999</v>
       </c>
       <c r="K12" t="n">
-        <v>0.442</v>
+        <v>0.443</v>
       </c>
       <c r="L12" t="n">
         <v>9.1</v>
       </c>
       <c r="M12" t="n">
-        <v>24.5</v>
+        <v>24.4</v>
       </c>
       <c r="N12" t="n">
-        <v>0.371</v>
+        <v>0.374</v>
       </c>
       <c r="O12" t="n">
         <v>19</v>
       </c>
       <c r="P12" t="n">
-        <v>24.7</v>
+        <v>24.6</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.769</v>
+        <v>0.772</v>
       </c>
       <c r="R12" t="n">
-        <v>11.3</v>
+        <v>11.2</v>
       </c>
       <c r="S12" t="n">
         <v>31.9</v>
       </c>
       <c r="T12" t="n">
-        <v>43.1</v>
+        <v>43.2</v>
       </c>
       <c r="U12" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="V12" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="W12" t="n">
         <v>7.7</v>
       </c>
       <c r="X12" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="Y12" t="n">
         <v>5.2</v>
@@ -2555,16 +2622,16 @@
         <v>23.6</v>
       </c>
       <c r="AA12" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="AB12" t="n">
-        <v>103.7</v>
+        <v>104</v>
       </c>
       <c r="AC12" t="n">
-        <v>-2</v>
+        <v>-1.8</v>
       </c>
       <c r="AD12" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AE12" t="n">
         <v>20</v>
@@ -2582,10 +2649,10 @@
         <v>9</v>
       </c>
       <c r="AJ12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK12" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL12" t="n">
         <v>3</v>
@@ -2594,7 +2661,7 @@
         <v>3</v>
       </c>
       <c r="AN12" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AO12" t="n">
         <v>12</v>
@@ -2612,13 +2679,13 @@
         <v>8</v>
       </c>
       <c r="AT12" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AU12" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AV12" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AW12" t="n">
         <v>9</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>4-2-2007-08</t>
+          <t>2008-04-02</t>
         </is>
       </c>
     </row>
@@ -2668,16 +2735,16 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E13" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F13" t="n">
         <v>52</v>
       </c>
       <c r="G13" t="n">
-        <v>0.307</v>
+        <v>0.297</v>
       </c>
       <c r="H13" t="n">
         <v>48.3</v>
@@ -2686,43 +2753,43 @@
         <v>34.3</v>
       </c>
       <c r="J13" t="n">
-        <v>78.2</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="K13" t="n">
         <v>0.439</v>
       </c>
       <c r="L13" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="M13" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="N13" t="n">
-        <v>0.324</v>
+        <v>0.322</v>
       </c>
       <c r="O13" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="P13" t="n">
-        <v>26.8</v>
+        <v>26.9</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.788</v>
+        <v>0.787</v>
       </c>
       <c r="R13" t="n">
         <v>9.6</v>
       </c>
       <c r="S13" t="n">
-        <v>30.3</v>
+        <v>30.2</v>
       </c>
       <c r="T13" t="n">
-        <v>39.9</v>
+        <v>39.8</v>
       </c>
       <c r="U13" t="n">
         <v>21.1</v>
       </c>
       <c r="V13" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="W13" t="n">
         <v>6.9</v>
@@ -2734,19 +2801,19 @@
         <v>4.8</v>
       </c>
       <c r="Z13" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="AA13" t="n">
         <v>21.9</v>
       </c>
       <c r="AB13" t="n">
-        <v>94.09999999999999</v>
+        <v>94</v>
       </c>
       <c r="AC13" t="n">
-        <v>-6.2</v>
+        <v>-6.5</v>
       </c>
       <c r="AD13" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AE13" t="n">
         <v>25</v>
@@ -2758,7 +2825,7 @@
         <v>25</v>
       </c>
       <c r="AH13" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AI13" t="n">
         <v>30</v>
@@ -2791,7 +2858,7 @@
         <v>26</v>
       </c>
       <c r="AS13" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AT13" t="n">
         <v>29</v>
@@ -2800,13 +2867,13 @@
         <v>20</v>
       </c>
       <c r="AV13" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AW13" t="n">
         <v>20</v>
       </c>
       <c r="AX13" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AY13" t="n">
         <v>15</v>
@@ -2815,13 +2882,13 @@
         <v>18</v>
       </c>
       <c r="BA13" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BB13" t="n">
         <v>29</v>
       </c>
       <c r="BC13" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BD13" t="n">
         <v>10</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>4-2-2007-08</t>
+          <t>2008-04-02</t>
         </is>
       </c>
     </row>
@@ -2850,25 +2917,25 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E14" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F14" t="n">
         <v>24</v>
       </c>
       <c r="G14" t="n">
-        <v>0.68</v>
+        <v>0.676</v>
       </c>
       <c r="H14" t="n">
         <v>48.3</v>
       </c>
       <c r="I14" t="n">
-        <v>39.6</v>
+        <v>39.7</v>
       </c>
       <c r="J14" t="n">
-        <v>83.40000000000001</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="K14" t="n">
         <v>0.475</v>
@@ -2877,31 +2944,31 @@
         <v>7.9</v>
       </c>
       <c r="M14" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="N14" t="n">
-        <v>0.375</v>
+        <v>0.374</v>
       </c>
       <c r="O14" t="n">
         <v>21.2</v>
       </c>
       <c r="P14" t="n">
-        <v>27.7</v>
+        <v>27.8</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.765</v>
+        <v>0.764</v>
       </c>
       <c r="R14" t="n">
-        <v>10.9</v>
+        <v>11</v>
       </c>
       <c r="S14" t="n">
         <v>33.3</v>
       </c>
       <c r="T14" t="n">
-        <v>44.2</v>
+        <v>44.3</v>
       </c>
       <c r="U14" t="n">
-        <v>24.3</v>
+        <v>24.2</v>
       </c>
       <c r="V14" t="n">
         <v>14.2</v>
@@ -2910,10 +2977,10 @@
         <v>8</v>
       </c>
       <c r="X14" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="Y14" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="Z14" t="n">
         <v>20.7</v>
@@ -2922,13 +2989,13 @@
         <v>22.5</v>
       </c>
       <c r="AB14" t="n">
-        <v>108.4</v>
+        <v>108.5</v>
       </c>
       <c r="AC14" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AD14" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AE14" t="n">
         <v>5</v>
@@ -2955,7 +3022,7 @@
         <v>5</v>
       </c>
       <c r="AM14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AN14" t="n">
         <v>8</v>
@@ -2967,7 +3034,7 @@
         <v>5</v>
       </c>
       <c r="AQ14" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AR14" t="n">
         <v>19</v>
@@ -2994,7 +3061,7 @@
         <v>13</v>
       </c>
       <c r="AZ14" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BA14" t="n">
         <v>5</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>4-2-2007-08</t>
+          <t>2008-04-02</t>
         </is>
       </c>
     </row>
@@ -3032,37 +3099,37 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E15" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F15" t="n">
         <v>55</v>
       </c>
       <c r="G15" t="n">
-        <v>0.267</v>
+        <v>0.257</v>
       </c>
       <c r="H15" t="n">
         <v>48.3</v>
       </c>
       <c r="I15" t="n">
-        <v>37.3</v>
+        <v>37.1</v>
       </c>
       <c r="J15" t="n">
-        <v>81.7</v>
+        <v>81.8</v>
       </c>
       <c r="K15" t="n">
-        <v>0.456</v>
+        <v>0.454</v>
       </c>
       <c r="L15" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="M15" t="n">
-        <v>21.4</v>
+        <v>21.2</v>
       </c>
       <c r="N15" t="n">
-        <v>0.351</v>
+        <v>0.349</v>
       </c>
       <c r="O15" t="n">
         <v>18.5</v>
@@ -3074,10 +3141,10 @@
         <v>0.729</v>
       </c>
       <c r="R15" t="n">
-        <v>10.2</v>
+        <v>10.3</v>
       </c>
       <c r="S15" t="n">
-        <v>31.3</v>
+        <v>31.2</v>
       </c>
       <c r="T15" t="n">
         <v>41.5</v>
@@ -3086,7 +3153,7 @@
         <v>19.1</v>
       </c>
       <c r="V15" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="W15" t="n">
         <v>6.1</v>
@@ -3098,49 +3165,49 @@
         <v>5</v>
       </c>
       <c r="Z15" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="AA15" t="n">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
       <c r="AB15" t="n">
-        <v>100.6</v>
+        <v>100.2</v>
       </c>
       <c r="AC15" t="n">
-        <v>-5.9</v>
+        <v>-6.2</v>
       </c>
       <c r="AD15" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AE15" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AF15" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AG15" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AH15" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ15" t="n">
         <v>13</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>10</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>14</v>
       </c>
       <c r="AK15" t="n">
         <v>15</v>
       </c>
       <c r="AL15" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AM15" t="n">
         <v>5</v>
       </c>
       <c r="AN15" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AO15" t="n">
         <v>19</v>
@@ -3155,10 +3222,10 @@
         <v>22</v>
       </c>
       <c r="AS15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AT15" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AU15" t="n">
         <v>29</v>
@@ -3167,10 +3234,10 @@
         <v>28</v>
       </c>
       <c r="AW15" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AX15" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AY15" t="n">
         <v>18</v>
@@ -3179,10 +3246,10 @@
         <v>5</v>
       </c>
       <c r="BA15" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BB15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BC15" t="n">
         <v>24</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>4-2-2007-08</t>
+          <t>2008-04-02</t>
         </is>
       </c>
     </row>
@@ -3214,46 +3281,46 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
       </c>
       <c r="F16" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G16" t="n">
-        <v>0.173</v>
+        <v>0.176</v>
       </c>
       <c r="H16" t="n">
         <v>48.4</v>
       </c>
       <c r="I16" t="n">
-        <v>34.4</v>
+        <v>34.5</v>
       </c>
       <c r="J16" t="n">
-        <v>77.2</v>
+        <v>77.3</v>
       </c>
       <c r="K16" t="n">
-        <v>0.446</v>
+        <v>0.447</v>
       </c>
       <c r="L16" t="n">
         <v>5.5</v>
       </c>
       <c r="M16" t="n">
-        <v>15.9</v>
+        <v>15.7</v>
       </c>
       <c r="N16" t="n">
-        <v>0.35</v>
+        <v>0.349</v>
       </c>
       <c r="O16" t="n">
-        <v>17.2</v>
+        <v>17.3</v>
       </c>
       <c r="P16" t="n">
-        <v>23.8</v>
+        <v>23.9</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.724</v>
+        <v>0.725</v>
       </c>
       <c r="R16" t="n">
         <v>9.1</v>
@@ -3271,13 +3338,13 @@
         <v>14.9</v>
       </c>
       <c r="W16" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="X16" t="n">
         <v>4.4</v>
       </c>
       <c r="Y16" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="Z16" t="n">
         <v>20.4</v>
@@ -3286,13 +3353,13 @@
         <v>20.6</v>
       </c>
       <c r="AB16" t="n">
-        <v>91.59999999999999</v>
+        <v>91.8</v>
       </c>
       <c r="AC16" t="n">
-        <v>-8.9</v>
+        <v>-8.699999999999999</v>
       </c>
       <c r="AD16" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AE16" t="n">
         <v>30</v>
@@ -3304,7 +3371,7 @@
         <v>30</v>
       </c>
       <c r="AH16" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AI16" t="n">
         <v>29</v>
@@ -3313,16 +3380,16 @@
         <v>29</v>
       </c>
       <c r="AK16" t="n">
+        <v>22</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>24</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>24</v>
+      </c>
+      <c r="AN16" t="n">
         <v>23</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>23</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>22</v>
       </c>
       <c r="AO16" t="n">
         <v>25</v>
@@ -3343,13 +3410,13 @@
         <v>30</v>
       </c>
       <c r="AU16" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AV16" t="n">
         <v>23</v>
       </c>
       <c r="AW16" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AX16" t="n">
         <v>22</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>4-2-2007-08</t>
+          <t>2008-04-02</t>
         </is>
       </c>
     </row>
@@ -3396,28 +3463,28 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E17" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F17" t="n">
         <v>48</v>
       </c>
       <c r="G17" t="n">
-        <v>0.351</v>
+        <v>0.342</v>
       </c>
       <c r="H17" t="n">
         <v>48.3</v>
       </c>
       <c r="I17" t="n">
-        <v>36.7</v>
+        <v>36.6</v>
       </c>
       <c r="J17" t="n">
-        <v>82.09999999999999</v>
+        <v>82</v>
       </c>
       <c r="K17" t="n">
-        <v>0.448</v>
+        <v>0.446</v>
       </c>
       <c r="L17" t="n">
         <v>5.5</v>
@@ -3429,13 +3496,13 @@
         <v>0.341</v>
       </c>
       <c r="O17" t="n">
-        <v>17.5</v>
+        <v>17.6</v>
       </c>
       <c r="P17" t="n">
-        <v>23.8</v>
+        <v>23.9</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.736</v>
+        <v>0.738</v>
       </c>
       <c r="R17" t="n">
         <v>12.9</v>
@@ -3447,7 +3514,7 @@
         <v>41.5</v>
       </c>
       <c r="U17" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="V17" t="n">
         <v>14.5</v>
@@ -3462,19 +3529,19 @@
         <v>5.1</v>
       </c>
       <c r="Z17" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="AA17" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="AB17" t="n">
-        <v>96.5</v>
+        <v>96.3</v>
       </c>
       <c r="AC17" t="n">
-        <v>-6.5</v>
+        <v>-6.6</v>
       </c>
       <c r="AD17" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AE17" t="n">
         <v>24</v>
@@ -3486,22 +3553,22 @@
         <v>24</v>
       </c>
       <c r="AH17" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI17" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AJ17" t="n">
         <v>10</v>
       </c>
       <c r="AK17" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AL17" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AM17" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AN17" t="n">
         <v>25</v>
@@ -3513,7 +3580,7 @@
         <v>23</v>
       </c>
       <c r="AQ17" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AR17" t="n">
         <v>4</v>
@@ -3522,19 +3589,19 @@
         <v>30</v>
       </c>
       <c r="AT17" t="n">
+        <v>17</v>
+      </c>
+      <c r="AU17" t="n">
         <v>18</v>
       </c>
-      <c r="AU17" t="n">
-        <v>16</v>
-      </c>
       <c r="AV17" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AW17" t="n">
         <v>22</v>
       </c>
       <c r="AX17" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AY17" t="n">
         <v>20</v>
@@ -3549,7 +3616,7 @@
         <v>22</v>
       </c>
       <c r="BC17" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>4-2-2007-08</t>
+          <t>2008-04-02</t>
         </is>
       </c>
     </row>
@@ -3578,16 +3645,16 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E18" t="n">
         <v>19</v>
       </c>
       <c r="F18" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G18" t="n">
-        <v>0.257</v>
+        <v>0.26</v>
       </c>
       <c r="H18" t="n">
         <v>48.1</v>
@@ -3596,37 +3663,37 @@
         <v>37</v>
       </c>
       <c r="J18" t="n">
-        <v>82.3</v>
+        <v>82.5</v>
       </c>
       <c r="K18" t="n">
-        <v>0.45</v>
+        <v>0.449</v>
       </c>
       <c r="L18" t="n">
         <v>5.3</v>
       </c>
       <c r="M18" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="N18" t="n">
-        <v>0.344</v>
+        <v>0.343</v>
       </c>
       <c r="O18" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="P18" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.736</v>
+        <v>0.735</v>
       </c>
       <c r="R18" t="n">
         <v>11.6</v>
       </c>
       <c r="S18" t="n">
-        <v>29.5</v>
+        <v>29.6</v>
       </c>
       <c r="T18" t="n">
-        <v>41.1</v>
+        <v>41.2</v>
       </c>
       <c r="U18" t="n">
         <v>19.9</v>
@@ -3635,7 +3702,7 @@
         <v>14.8</v>
       </c>
       <c r="W18" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="X18" t="n">
         <v>3.8</v>
@@ -3650,22 +3717,22 @@
         <v>17.7</v>
       </c>
       <c r="AB18" t="n">
-        <v>94.8</v>
+        <v>94.7</v>
       </c>
       <c r="AC18" t="n">
-        <v>-6.6</v>
+        <v>-6.5</v>
       </c>
       <c r="AD18" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AE18" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AF18" t="n">
         <v>26</v>
       </c>
       <c r="AG18" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AH18" t="n">
         <v>29</v>
@@ -3695,16 +3762,16 @@
         <v>28</v>
       </c>
       <c r="AQ18" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AR18" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AS18" t="n">
         <v>24</v>
       </c>
       <c r="AT18" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AU18" t="n">
         <v>26</v>
@@ -3731,7 +3798,7 @@
         <v>28</v>
       </c>
       <c r="BC18" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="BD18" t="n">
         <v>10</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>4-2-2007-08</t>
+          <t>2008-04-02</t>
         </is>
       </c>
     </row>
@@ -3838,19 +3905,19 @@
         <v>-4.8</v>
       </c>
       <c r="AD19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE19" t="n">
         <v>20</v>
       </c>
       <c r="AF19" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG19" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AH19" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AI19" t="n">
         <v>28</v>
@@ -3859,7 +3926,7 @@
         <v>25</v>
       </c>
       <c r="AK19" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AL19" t="n">
         <v>18</v>
@@ -3868,7 +3935,7 @@
         <v>18</v>
       </c>
       <c r="AN19" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AO19" t="n">
         <v>10</v>
@@ -3892,13 +3959,13 @@
         <v>6</v>
       </c>
       <c r="AV19" t="n">
+        <v>27</v>
+      </c>
+      <c r="AW19" t="n">
         <v>25</v>
       </c>
-      <c r="AW19" t="n">
-        <v>26</v>
-      </c>
       <c r="AX19" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AY19" t="n">
         <v>9</v>
@@ -3907,7 +3974,7 @@
         <v>26</v>
       </c>
       <c r="BA19" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BB19" t="n">
         <v>26</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>4-2-2007-08</t>
+          <t>2008-04-02</t>
         </is>
       </c>
     </row>
@@ -3942,16 +4009,16 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E20" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F20" t="n">
         <v>22</v>
       </c>
       <c r="G20" t="n">
-        <v>0.703</v>
+        <v>0.699</v>
       </c>
       <c r="H20" t="n">
         <v>48.3</v>
@@ -3960,7 +4027,7 @@
         <v>38.5</v>
       </c>
       <c r="J20" t="n">
-        <v>82.90000000000001</v>
+        <v>82.8</v>
       </c>
       <c r="K20" t="n">
         <v>0.464</v>
@@ -3972,7 +4039,7 @@
         <v>19.8</v>
       </c>
       <c r="N20" t="n">
-        <v>0.392</v>
+        <v>0.393</v>
       </c>
       <c r="O20" t="n">
         <v>15.9</v>
@@ -3981,22 +4048,22 @@
         <v>20.7</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.768</v>
+        <v>0.77</v>
       </c>
       <c r="R20" t="n">
         <v>11.6</v>
       </c>
       <c r="S20" t="n">
-        <v>30.5</v>
+        <v>30.4</v>
       </c>
       <c r="T20" t="n">
-        <v>42.1</v>
+        <v>42</v>
       </c>
       <c r="U20" t="n">
         <v>21.6</v>
       </c>
       <c r="V20" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="W20" t="n">
         <v>7.6</v>
@@ -4014,16 +4081,16 @@
         <v>19.2</v>
       </c>
       <c r="AB20" t="n">
-        <v>100.7</v>
+        <v>100.6</v>
       </c>
       <c r="AC20" t="n">
-        <v>5.3</v>
+        <v>4.9</v>
       </c>
       <c r="AD20" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AE20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF20" t="n">
         <v>3</v>
@@ -4032,7 +4099,7 @@
         <v>3</v>
       </c>
       <c r="AH20" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI20" t="n">
         <v>6</v>
@@ -4059,16 +4126,16 @@
         <v>29</v>
       </c>
       <c r="AQ20" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AR20" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AS20" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AT20" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AU20" t="n">
         <v>13</v>
@@ -4092,7 +4159,7 @@
         <v>28</v>
       </c>
       <c r="BB20" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BC20" t="n">
         <v>6</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>4-2-2007-08</t>
+          <t>2008-04-02</t>
         </is>
       </c>
     </row>
@@ -4124,61 +4191,61 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E21" t="n">
         <v>20</v>
       </c>
       <c r="F21" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G21" t="n">
-        <v>0.267</v>
+        <v>0.27</v>
       </c>
       <c r="H21" t="n">
         <v>48.5</v>
       </c>
       <c r="I21" t="n">
-        <v>35.8</v>
+        <v>35.7</v>
       </c>
       <c r="J21" t="n">
-        <v>81.7</v>
+        <v>81.5</v>
       </c>
       <c r="K21" t="n">
         <v>0.438</v>
       </c>
       <c r="L21" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="M21" t="n">
-        <v>17.4</v>
+        <v>17.3</v>
       </c>
       <c r="N21" t="n">
-        <v>0.336</v>
+        <v>0.337</v>
       </c>
       <c r="O21" t="n">
-        <v>18.8</v>
+        <v>18.7</v>
       </c>
       <c r="P21" t="n">
-        <v>26</v>
+        <v>25.9</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.723</v>
+        <v>0.722</v>
       </c>
       <c r="R21" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="S21" t="n">
         <v>29.7</v>
       </c>
       <c r="T21" t="n">
-        <v>42.1</v>
+        <v>42</v>
       </c>
       <c r="U21" t="n">
-        <v>18.6</v>
+        <v>18.5</v>
       </c>
       <c r="V21" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="W21" t="n">
         <v>6.3</v>
@@ -4187,7 +4254,7 @@
         <v>2.6</v>
       </c>
       <c r="Y21" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="Z21" t="n">
         <v>21.4</v>
@@ -4196,13 +4263,13 @@
         <v>20.6</v>
       </c>
       <c r="AB21" t="n">
-        <v>96.09999999999999</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="AC21" t="n">
-        <v>-7</v>
+        <v>-6.9</v>
       </c>
       <c r="AD21" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AE21" t="n">
         <v>26</v>
@@ -4217,10 +4284,10 @@
         <v>3</v>
       </c>
       <c r="AI21" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AJ21" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AK21" t="n">
         <v>29</v>
@@ -4229,7 +4296,7 @@
         <v>21</v>
       </c>
       <c r="AM21" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AN21" t="n">
         <v>28</v>
@@ -4244,10 +4311,10 @@
         <v>27</v>
       </c>
       <c r="AR21" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AS21" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AT21" t="n">
         <v>14</v>
@@ -4256,16 +4323,16 @@
         <v>30</v>
       </c>
       <c r="AV21" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AW21" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AX21" t="n">
         <v>30</v>
       </c>
       <c r="AY21" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AZ21" t="n">
         <v>19</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>4-2-2007-08</t>
+          <t>2008-04-02</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4451,7 @@
         <v>4.7</v>
       </c>
       <c r="AD22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE22" t="n">
         <v>9</v>
@@ -4396,7 +4463,7 @@
         <v>9</v>
       </c>
       <c r="AH22" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AI22" t="n">
         <v>12</v>
@@ -4417,7 +4484,7 @@
         <v>4</v>
       </c>
       <c r="AO22" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AP22" t="n">
         <v>3</v>
@@ -4453,7 +4520,7 @@
         <v>15</v>
       </c>
       <c r="BA22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BB22" t="n">
         <v>6</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>4-2-2007-08</t>
+          <t>2008-04-02</t>
         </is>
       </c>
     </row>
@@ -4566,19 +4633,19 @@
         <v>0.8</v>
       </c>
       <c r="AD23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE23" t="n">
         <v>14</v>
       </c>
       <c r="AF23" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AG23" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AH23" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AI23" t="n">
         <v>10</v>
@@ -4608,13 +4675,13 @@
         <v>30</v>
       </c>
       <c r="AR23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AS23" t="n">
         <v>28</v>
       </c>
       <c r="AT23" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AU23" t="n">
         <v>22</v>
@@ -4638,7 +4705,7 @@
         <v>16</v>
       </c>
       <c r="BB23" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BC23" t="n">
         <v>14</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>4-2-2007-08</t>
+          <t>2008-04-02</t>
         </is>
       </c>
     </row>
@@ -4748,10 +4815,10 @@
         <v>4.8</v>
       </c>
       <c r="AD24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE24" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AF24" t="n">
         <v>6</v>
@@ -4760,7 +4827,7 @@
         <v>6</v>
       </c>
       <c r="AH24" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AI24" t="n">
         <v>1</v>
@@ -4769,7 +4836,7 @@
         <v>7</v>
       </c>
       <c r="AK24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL24" t="n">
         <v>4</v>
@@ -4796,7 +4863,7 @@
         <v>5</v>
       </c>
       <c r="AT24" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AU24" t="n">
         <v>1</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>4-2-2007-08</t>
+          <t>2008-04-02</t>
         </is>
       </c>
     </row>
@@ -4852,16 +4919,16 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E25" t="n">
         <v>38</v>
       </c>
       <c r="F25" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G25" t="n">
-        <v>0.507</v>
+        <v>0.514</v>
       </c>
       <c r="H25" t="n">
         <v>48.6</v>
@@ -4873,22 +4940,22 @@
         <v>79.7</v>
       </c>
       <c r="K25" t="n">
-        <v>0.448</v>
+        <v>0.449</v>
       </c>
       <c r="L25" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="M25" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.376</v>
+      </c>
+      <c r="O25" t="n">
         <v>17.5</v>
       </c>
-      <c r="N25" t="n">
-        <v>0.377</v>
-      </c>
-      <c r="O25" t="n">
-        <v>17.4</v>
-      </c>
       <c r="P25" t="n">
-        <v>22.7</v>
+        <v>22.8</v>
       </c>
       <c r="Q25" t="n">
         <v>0.769</v>
@@ -4918,7 +4985,7 @@
         <v>3.7</v>
       </c>
       <c r="Z25" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="AA25" t="n">
         <v>20.4</v>
@@ -4927,10 +4994,10 @@
         <v>95.5</v>
       </c>
       <c r="AC25" t="n">
-        <v>-1</v>
+        <v>-0.8</v>
       </c>
       <c r="AD25" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AE25" t="n">
         <v>14</v>
@@ -4945,13 +5012,13 @@
         <v>1</v>
       </c>
       <c r="AI25" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AJ25" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AK25" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AL25" t="n">
         <v>15</v>
@@ -4969,28 +5036,28 @@
         <v>25</v>
       </c>
       <c r="AQ25" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AR25" t="n">
         <v>18</v>
       </c>
       <c r="AS25" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AT25" t="n">
         <v>24</v>
       </c>
       <c r="AU25" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AV25" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AW25" t="n">
         <v>30</v>
       </c>
       <c r="AX25" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AY25" t="n">
         <v>1</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>4-2-2007-08</t>
+          <t>2008-04-02</t>
         </is>
       </c>
     </row>
@@ -5112,25 +5179,25 @@
         <v>-2.2</v>
       </c>
       <c r="AD26" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="AE26" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AF26" t="n">
         <v>18</v>
       </c>
       <c r="AG26" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AH26" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AI26" t="n">
         <v>14</v>
       </c>
       <c r="AJ26" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AK26" t="n">
         <v>10</v>
@@ -5139,7 +5206,7 @@
         <v>17</v>
       </c>
       <c r="AM26" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AN26" t="n">
         <v>12</v>
@@ -5169,7 +5236,7 @@
         <v>29</v>
       </c>
       <c r="AW26" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AX26" t="n">
         <v>24</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>4-2-2007-08</t>
+          <t>2008-04-02</t>
         </is>
       </c>
     </row>
@@ -5294,7 +5361,7 @@
         <v>5.3</v>
       </c>
       <c r="AD27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE27" t="n">
         <v>3</v>
@@ -5306,10 +5373,10 @@
         <v>4</v>
       </c>
       <c r="AH27" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AI27" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AJ27" t="n">
         <v>26</v>
@@ -5324,7 +5391,7 @@
         <v>8</v>
       </c>
       <c r="AN27" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AO27" t="n">
         <v>26</v>
@@ -5333,7 +5400,7 @@
         <v>27</v>
       </c>
       <c r="AQ27" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AR27" t="n">
         <v>25</v>
@@ -5366,7 +5433,7 @@
         <v>23</v>
       </c>
       <c r="BB27" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BC27" t="n">
         <v>5</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>4-2-2007-08</t>
+          <t>2008-04-02</t>
         </is>
       </c>
     </row>
@@ -5398,16 +5465,16 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E28" t="n">
         <v>17</v>
       </c>
       <c r="F28" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G28" t="n">
-        <v>0.227</v>
+        <v>0.23</v>
       </c>
       <c r="H28" t="n">
         <v>48.3</v>
@@ -5416,10 +5483,10 @@
         <v>38.1</v>
       </c>
       <c r="J28" t="n">
-        <v>85.3</v>
+        <v>85.2</v>
       </c>
       <c r="K28" t="n">
-        <v>0.446</v>
+        <v>0.447</v>
       </c>
       <c r="L28" t="n">
         <v>4</v>
@@ -5428,7 +5495,7 @@
         <v>11.9</v>
       </c>
       <c r="N28" t="n">
-        <v>0.336</v>
+        <v>0.339</v>
       </c>
       <c r="O28" t="n">
         <v>17.5</v>
@@ -5437,7 +5504,7 @@
         <v>22.8</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.767</v>
+        <v>0.768</v>
       </c>
       <c r="R28" t="n">
         <v>11.8</v>
@@ -5446,13 +5513,13 @@
         <v>32.6</v>
       </c>
       <c r="T28" t="n">
-        <v>44.4</v>
+        <v>44.3</v>
       </c>
       <c r="U28" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="V28" t="n">
-        <v>16.3</v>
+        <v>16.4</v>
       </c>
       <c r="W28" t="n">
         <v>6.4</v>
@@ -5470,13 +5537,13 @@
         <v>19.7</v>
       </c>
       <c r="AB28" t="n">
-        <v>97.59999999999999</v>
+        <v>97.8</v>
       </c>
       <c r="AC28" t="n">
-        <v>-8.800000000000001</v>
+        <v>-8.6</v>
       </c>
       <c r="AD28" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AE28" t="n">
         <v>29</v>
@@ -5497,7 +5564,7 @@
         <v>4</v>
       </c>
       <c r="AK28" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL28" t="n">
         <v>29</v>
@@ -5506,7 +5573,7 @@
         <v>29</v>
       </c>
       <c r="AN28" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AO28" t="n">
         <v>23</v>
@@ -5536,7 +5603,7 @@
         <v>24</v>
       </c>
       <c r="AX28" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AY28" t="n">
         <v>26</v>
@@ -5548,7 +5615,7 @@
         <v>27</v>
       </c>
       <c r="BB28" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BC28" t="n">
         <v>29</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>4-2-2007-08</t>
+          <t>2008-04-02</t>
         </is>
       </c>
     </row>
@@ -5580,28 +5647,28 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E29" t="n">
         <v>38</v>
       </c>
       <c r="F29" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G29" t="n">
-        <v>0.507</v>
+        <v>0.514</v>
       </c>
       <c r="H29" t="n">
-        <v>48.4</v>
+        <v>48.3</v>
       </c>
       <c r="I29" t="n">
-        <v>38.4</v>
+        <v>38.3</v>
       </c>
       <c r="J29" t="n">
-        <v>81.90000000000001</v>
+        <v>81.8</v>
       </c>
       <c r="K29" t="n">
-        <v>0.469</v>
+        <v>0.468</v>
       </c>
       <c r="L29" t="n">
         <v>7.2</v>
@@ -5619,19 +5686,19 @@
         <v>20.2</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.8129999999999999</v>
+        <v>0.8110000000000001</v>
       </c>
       <c r="R29" t="n">
         <v>9.5</v>
       </c>
       <c r="S29" t="n">
-        <v>30.5</v>
+        <v>30.6</v>
       </c>
       <c r="T29" t="n">
-        <v>40</v>
+        <v>40.1</v>
       </c>
       <c r="U29" t="n">
-        <v>23.6</v>
+        <v>23.5</v>
       </c>
       <c r="V29" t="n">
         <v>11.8</v>
@@ -5643,7 +5710,7 @@
         <v>4</v>
       </c>
       <c r="Y29" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="Z29" t="n">
         <v>19.6</v>
@@ -5652,13 +5719,13 @@
         <v>18.4</v>
       </c>
       <c r="AB29" t="n">
-        <v>100.4</v>
+        <v>100.1</v>
       </c>
       <c r="AC29" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="AD29" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AE29" t="n">
         <v>14</v>
@@ -5670,7 +5737,7 @@
         <v>14</v>
       </c>
       <c r="AH29" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AI29" t="n">
         <v>7</v>
@@ -5679,7 +5746,7 @@
         <v>11</v>
       </c>
       <c r="AK29" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AL29" t="n">
         <v>10</v>
@@ -5691,19 +5758,19 @@
         <v>1</v>
       </c>
       <c r="AO29" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AP29" t="n">
         <v>30</v>
       </c>
       <c r="AQ29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR29" t="n">
         <v>27</v>
       </c>
       <c r="AS29" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AT29" t="n">
         <v>28</v>
@@ -5724,7 +5791,7 @@
         <v>5</v>
       </c>
       <c r="AZ29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BA29" t="n">
         <v>29</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>4-2-2007-08</t>
+          <t>2008-04-02</t>
         </is>
       </c>
     </row>
@@ -5762,16 +5829,16 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E30" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F30" t="n">
         <v>26</v>
       </c>
       <c r="G30" t="n">
-        <v>0.658</v>
+        <v>0.653</v>
       </c>
       <c r="H30" t="n">
         <v>48.1</v>
@@ -5780,31 +5847,31 @@
         <v>40.2</v>
       </c>
       <c r="J30" t="n">
-        <v>80.40000000000001</v>
+        <v>80.5</v>
       </c>
       <c r="K30" t="n">
-        <v>0.5</v>
+        <v>0.499</v>
       </c>
       <c r="L30" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="M30" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="N30" t="n">
-        <v>0.377</v>
+        <v>0.373</v>
       </c>
       <c r="O30" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="P30" t="n">
-        <v>28.7</v>
+        <v>28.8</v>
       </c>
       <c r="Q30" t="n">
         <v>0.758</v>
       </c>
       <c r="R30" t="n">
-        <v>11.5</v>
+        <v>11.6</v>
       </c>
       <c r="S30" t="n">
         <v>29.1</v>
@@ -5825,7 +5892,7 @@
         <v>4.3</v>
       </c>
       <c r="Y30" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="Z30" t="n">
         <v>24.3</v>
@@ -5834,16 +5901,16 @@
         <v>23.4</v>
       </c>
       <c r="AB30" t="n">
-        <v>107.1</v>
+        <v>107</v>
       </c>
       <c r="AC30" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="AD30" t="n">
         <v>1</v>
       </c>
       <c r="AE30" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AF30" t="n">
         <v>8</v>
@@ -5861,7 +5928,7 @@
         <v>18</v>
       </c>
       <c r="AK30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL30" t="n">
         <v>26</v>
@@ -5870,7 +5937,7 @@
         <v>27</v>
       </c>
       <c r="AN30" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AO30" t="n">
         <v>3</v>
@@ -5909,7 +5976,7 @@
         <v>30</v>
       </c>
       <c r="BA30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BB30" t="n">
         <v>5</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>4-2-2007-08</t>
+          <t>2008-04-02</t>
         </is>
       </c>
     </row>
@@ -5944,28 +6011,28 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E31" t="n">
         <v>38</v>
       </c>
       <c r="F31" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G31" t="n">
-        <v>0.507</v>
+        <v>0.514</v>
       </c>
       <c r="H31" t="n">
         <v>48.6</v>
       </c>
       <c r="I31" t="n">
-        <v>36.4</v>
+        <v>36.3</v>
       </c>
       <c r="J31" t="n">
-        <v>81.59999999999999</v>
+        <v>81.7</v>
       </c>
       <c r="K31" t="n">
-        <v>0.445</v>
+        <v>0.444</v>
       </c>
       <c r="L31" t="n">
         <v>6.8</v>
@@ -5974,7 +6041,7 @@
         <v>19.5</v>
       </c>
       <c r="N31" t="n">
-        <v>0.352</v>
+        <v>0.351</v>
       </c>
       <c r="O31" t="n">
         <v>19.2</v>
@@ -5983,16 +6050,16 @@
         <v>24.4</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.786</v>
+        <v>0.787</v>
       </c>
       <c r="R31" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="S31" t="n">
-        <v>29.2</v>
+        <v>29.3</v>
       </c>
       <c r="T31" t="n">
-        <v>41.3</v>
+        <v>41.4</v>
       </c>
       <c r="U31" t="n">
         <v>19.4</v>
@@ -6001,7 +6068,7 @@
         <v>13.2</v>
       </c>
       <c r="W31" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="X31" t="n">
         <v>4.9</v>
@@ -6016,13 +6083,13 @@
         <v>20.3</v>
       </c>
       <c r="AB31" t="n">
-        <v>98.7</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="AC31" t="n">
         <v>-0.6</v>
       </c>
       <c r="AD31" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AE31" t="n">
         <v>14</v>
@@ -6040,7 +6107,7 @@
         <v>20</v>
       </c>
       <c r="AJ31" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AK31" t="n">
         <v>24</v>
@@ -6052,7 +6119,7 @@
         <v>10</v>
       </c>
       <c r="AN31" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AO31" t="n">
         <v>11</v>
@@ -6079,13 +6146,13 @@
         <v>8</v>
       </c>
       <c r="AW31" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX31" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AY31" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ31" t="n">
         <v>6</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>4-2-2007-08</t>
+          <t>2008-04-02</t>
         </is>
       </c>
     </row>
